--- a/output/StructureDefinition-strength-training-observation.xlsx
+++ b/output/StructureDefinition-strength-training-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -685,9 +685,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://snomed.info/sct"/&gt;
-    &lt;code value="266940006"/&gt;
-    &lt;display value="Strength training (procedure)"/&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="73985-4"/&gt;
+    &lt;display value="Exercise activity"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2342,7 +2342,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/strength-training-cs"/&gt;
     &lt;code value="vel-loss"/&gt;
-    &lt;display value="Velocity Loss in Set"/&gt;
+    &lt;display value="Velocity Loss"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -3008,7 +3008,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/strength-training-cs"/&gt;
     &lt;code value="session-load"/&gt;
-    &lt;display value="Session Training Load (sRPE)"/&gt;
+    &lt;display value="Session Training Load"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
